--- a/Abigail/Ejercicio09/Tablas.xlsx
+++ b/Abigail/Ejercicio09/Tablas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abigail\Desktop\ESCUELA\GitHub\Analisis-Algoritmos\Abigail\Ejercicio09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41E16C9-88F4-4093-AADF-37502AAF9E0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3892AE1-7549-491F-80D4-BB542F62BD08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{8FB4B915-EC4A-4BE7-8A94-E1D30AFEF296}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{8FB4B915-EC4A-4BE7-8A94-E1D30AFEF296}"/>
   </bookViews>
   <sheets>
     <sheet name="Dijkstra" sheetId="1" r:id="rId1"/>
+    <sheet name="Prim" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="81">
   <si>
     <t>A</t>
   </si>
@@ -250,6 +251,30 @@
   </si>
   <si>
     <t>(24, P)</t>
+  </si>
+  <si>
+    <t>Nodo Inicio</t>
+  </si>
+  <si>
+    <t>Nodo Fin</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Ejercicio 01</t>
+  </si>
+  <si>
+    <t>Ejercicio 02</t>
+  </si>
+  <si>
+    <t>Ejercicio 03</t>
+  </si>
+  <si>
+    <t>Ejercicio 04</t>
+  </si>
+  <si>
+    <t>Ejercicio 05</t>
   </si>
 </sst>
 </file>
@@ -326,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,6 +369,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92E64A-6FA8-4E0B-A10E-89E46390F28A}">
   <dimension ref="B3:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,30 +707,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -960,30 +991,30 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
@@ -1201,36 +1232,36 @@
       <c r="J29" s="3"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
@@ -1644,27 +1675,27 @@
       <c r="N47" s="3"/>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -1811,36 +1842,36 @@
       <c r="H59" s="3"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
     </row>
     <row r="64" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
@@ -2599,4 +2630,1001 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68237EAC-AE89-4C84-B94A-B4FB672016E1}">
+  <dimension ref="B1:T37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P17" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="N1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="R1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>9</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6</v>
+      </c>
+      <c r="P7" s="3">
+        <v>14</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>15</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>11</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>6</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="3">
+        <v>4</v>
+      </c>
+      <c r="T11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6</v>
+      </c>
+      <c r="P12" s="3">
+        <v>9</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>9</v>
+      </c>
+      <c r="L15" s="3">
+        <v>7</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>9</v>
+      </c>
+      <c r="L17" s="3">
+        <v>9</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3">
+        <v>9</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <v>7</v>
+      </c>
+      <c r="K20" s="3">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <v>6</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>9</v>
+      </c>
+      <c r="L23" s="3">
+        <v>9</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J24" s="3">
+        <v>6</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="3">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>9</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>6</v>
+      </c>
+      <c r="K27" s="3">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="N1:P2"/>
+    <mergeCell ref="R1:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>